--- a/data/trans_dic/P28B_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28B_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha alimentado peor respecto al último mes</t>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 26,06</t>
+          <t>3,1; 24,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 19,38</t>
+          <t>0,0; 20,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 21,25</t>
+          <t>0,0; 20,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 17,37</t>
+          <t>3,75; 33,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 32,92</t>
+          <t>13,16; 37,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 20,63</t>
+          <t>8,24; 33,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 22,88</t>
+          <t>6,79; 28,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 13,83</t>
+          <t>1,26; 13,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 25,79</t>
+          <t>11,11; 27,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 17,06</t>
+          <t>6,1; 23,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 18,63</t>
+          <t>5,44; 18,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,13</t>
+          <t>3,97; 18,72</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 19,08</t>
+          <t>4,42; 24,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 16,41</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 16,97</t>
+          <t>2,46; 22,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 18,27</t>
+          <t>1,16; 14,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 36,16</t>
+          <t>16,38; 41,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 22,43</t>
+          <t>3,37; 18,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 19,2</t>
+          <t>5,38; 22,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,65</t>
+          <t>0,0; 13,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,33; 25,32</t>
+          <t>12,13; 29,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 14,92</t>
+          <t>2,62; 13,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 15,55</t>
+          <t>5,83; 18,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,37</t>
+          <t>1,58; 9,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,01; 42,36</t>
+          <t>16,73; 39,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 21,4</t>
+          <t>4,87; 22,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,95</t>
+          <t>1,45; 12,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 14,52</t>
+          <t>4,02; 21,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 36,39</t>
+          <t>21,26; 39,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,95</t>
+          <t>4,81; 16,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,69</t>
+          <t>4,81; 16,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,73</t>
+          <t>7,47; 20,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,31; 36,55</t>
+          <t>21,74; 36,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 15,58</t>
+          <t>6,38; 15,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,63</t>
+          <t>4,19; 12,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,28</t>
+          <t>6,92; 17,36</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 20,21</t>
+          <t>3,63; 17,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 12,91</t>
+          <t>1,36; 12,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,02</t>
+          <t>1,3; 12,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 28,29</t>
+          <t>14,41; 31,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,94</t>
+          <t>1,01; 9,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 12,77</t>
+          <t>5,1; 16,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,29</t>
+          <t>3,85; 15,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 22,27</t>
+          <t>11,34; 22,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,43</t>
+          <t>2,27; 9,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,63</t>
+          <t>4,31; 12,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,95</t>
+          <t>1,96; 7,7</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,43</t>
+          <t>2,57; 14,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,3</t>
+          <t>1,43; 13,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,01</t>
+          <t>0,0; 7,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,26</t>
+          <t>0,0; 8,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 24,72</t>
+          <t>10,77; 32,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,4</t>
+          <t>5,66; 24,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 18,49</t>
+          <t>3,57; 21,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 14,38</t>
+          <t>1,87; 17,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 17,98</t>
+          <t>7,1; 19,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,1</t>
+          <t>4,04; 14,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,35</t>
+          <t>2,1; 9,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,24</t>
+          <t>1,57; 8,63</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1357,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1376,42 +1377,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,73; 22,4</t>
+          <t>3,1; 25,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,5</t>
+          <t>0,0; 11,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 12,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 15,33</t>
+          <t>6,16; 29,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 22,77</t>
+          <t>1,86; 17,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,73</t>
+          <t>0,0; 12,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 22,39</t>
+          <t>0,0; 24,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 15,0</t>
+          <t>7,11; 23,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 12,76</t>
+          <t>1,22; 12,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,25</t>
+          <t>1,0; 9,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,23</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 19,27</t>
+          <t>9,0; 16,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,96</t>
+          <t>3,81; 9,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,21</t>
+          <t>2,73; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,25</t>
+          <t>2,88; 9,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 24,55</t>
+          <t>20,37; 28,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,81</t>
+          <t>6,79; 12,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,4</t>
+          <t>7,37; 13,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,9</t>
+          <t>5,48; 11,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 20,65</t>
+          <t>16,03; 21,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,53</t>
+          <t>5,84; 10,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,89</t>
+          <t>5,73; 9,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,38</t>
+          <t>4,82; 8,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8386</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7334</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18230</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28591</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24343</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17972</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36977</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31677</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24001</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24664</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2673; 21438</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22227</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21539</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4779; 42340</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15477; 44193</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11048; 45159</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8150; 34379</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1546; 16683</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22634; 56497</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14698; 55530</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12284; 42625</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9929; 46804</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16128</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5979</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12632</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7411</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37763</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14583</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16478</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53891</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20561</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29110</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11983</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6046; 33166</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21231</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3528; 32058</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1785; 22402</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21841; 55842</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5562; 30241</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6823; 28599</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16813</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32779; 78822</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8732; 43449</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15742; 48646</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4423; 27445</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37665</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18529</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62854</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25185</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20718</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25895</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>100519</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43714</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27049</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39980</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23372; 54822</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7899; 36296</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1945; 17263</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5537; 29886</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45789; 84816</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12702; 42791</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9991; 34874</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14966; 40740</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77190; 128986</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27176; 67626</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14345; 43445</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23413; 58700</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13896</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7940</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>42085</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8677</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17611</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13717</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55980</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18978</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25551</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13717</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5928; 28065</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2533; 23333</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2103; 19755</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27562; 60529</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2199; 21425</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9483; 31515</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6632; 26243</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40238; 78748</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9201; 37755</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14979; 43073</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6445; 25295</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9151</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1788</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20533</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13803</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8665</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7193</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29922</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22955</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10610</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8981</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3568; 19856</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2259; 21374</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10111</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10512</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11140; 33903</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6572; 27970</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3285; 19887</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1730; 16384</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17216; 47401</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11064; 40317</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4713; 21970</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3380; 18630</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10305</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2953</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16647</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9640</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26952</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12593</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2800; 23236</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13044</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10531</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6589; 31587</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2563; 23901</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13412</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 26929</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14033; 46702</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3006; 30695</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1916; 17902</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 27021</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>95770</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>54246</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36968</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41515</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>208472</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>96232</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>85763</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>65031</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>304242</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>150478</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>122731</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>106546</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>67958; 126815</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33956; 84569</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20868; 58827</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22752; 71526</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>176807; 250364</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>70272; 129151</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>61682; 113497</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>45199; 93872</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>260243; 356771</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>112581; 194413</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>91803; 158580</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>77776; 141276</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>